--- a/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
+++ b/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
@@ -1285,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1308,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1400,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1423,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1446,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1469,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1492,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1515,7 +1515,7 @@
         <v>13</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1538,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1584,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1630,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1653,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1676,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1699,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1722,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1745,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1768,7 +1768,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1791,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1814,7 +1814,7 @@
         <v>12</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1837,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1860,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1883,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1906,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1952,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1975,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1998,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2021,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2044,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2067,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2090,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2113,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2136,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2159,7 +2159,7 @@
         <v>14</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
+++ b/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,144 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LIBONATTI</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>ANGEL RODRIGO</t>
+  </si>
+  <si>
+    <t>EBERTH JUVIEL</t>
+  </si>
+  <si>
+    <t>JORGE ANTONIO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>VICTOR YAHIR</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -986,6 +1124,397 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920441</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920375</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920377</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>17330051920466</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920455</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920307</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920312</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920337</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920373</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920374</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920381</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
+++ b/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>Mat</t>
   </si>
@@ -82,27 +82,60 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
+    <t>CASIANO</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>ESPIRITU</t>
   </si>
   <si>
     <t>GIL</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>LIBONATTI</t>
   </si>
   <si>
@@ -112,19 +145,13 @@
     <t>PAZ</t>
   </si>
   <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>CID</t>
   </si>
   <si>
     <t>DE LA CRUZ</t>
@@ -136,6 +163,39 @@
     <t>IXMATLAHUA</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
     <t>BUSTAMANTE</t>
   </si>
   <si>
@@ -154,19 +214,13 @@
     <t>MONTERROSAS</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
+    <t>ALMA LIZETH</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
   </si>
   <si>
     <t>ABRAHAM</t>
@@ -184,6 +238,45 @@
     <t>LUCERO</t>
   </si>
   <si>
+    <t>DIANA MIRELLY</t>
+  </si>
+  <si>
+    <t>OSWALDO IVAN</t>
+  </si>
+  <si>
+    <t>YULENNY</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>URI YAEL</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>VICTOR YAHIR</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
@@ -200,24 +293,6 @@
   </si>
   <si>
     <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
-    <t>VICTOR YAHIR</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>MARIAM ABRIL</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1126,22 +1201,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920441</v>
+        <v>19330051920046</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1149,22 +1224,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920321</v>
+        <v>19330051920057</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1172,22 +1247,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920375</v>
+        <v>19330051920060</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1195,22 +1270,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920377</v>
+        <v>19330051920441</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1218,22 +1293,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920382</v>
+        <v>19330051920321</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1241,22 +1316,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920116</v>
+        <v>19330051920375</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1264,22 +1339,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920120</v>
+        <v>19330051920377</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1287,22 +1362,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920121</v>
+        <v>19330051920382</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1310,16 +1385,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920125</v>
+        <v>18330051920113</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1333,16 +1408,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>17330051920466</v>
+        <v>18330051920122</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1356,16 +1431,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920455</v>
+        <v>18330051920128</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1379,91 +1454,91 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920307</v>
+        <v>18330051920130</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920312</v>
+        <v>18330051920135</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920337</v>
+        <v>18330051920044</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920373</v>
+        <v>19330051920056</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1471,22 +1546,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920374</v>
+        <v>19330051920307</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1494,24 +1569,254 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920381</v>
+        <v>19330051920312</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920337</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920373</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920374</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920381</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>18330051920125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>17330051920466</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>18330051920455</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
+++ b/docentes/Polanco Domínguez Rosa María - Estadisticos 2020.xlsx
@@ -103,39 +103,39 @@
     <t>CASIANO</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
     <t>GUZMAN</t>
   </si>
   <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
     <t>LIBONATTI</t>
   </si>
   <si>
@@ -163,48 +163,48 @@
     <t>IXMATLAHUA</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>GAMBINO</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>FIGUEROA</t>
   </si>
   <si>
@@ -241,49 +241,49 @@
     <t>DIANA MIRELLY</t>
   </si>
   <si>
+    <t>YULENNY</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>URI YAEL</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>VICTOR YAHIR</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>ANGEL RODRIGO</t>
+  </si>
+  <si>
     <t>OSWALDO IVAN</t>
-  </si>
-  <si>
-    <t>YULENNY</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
-    <t>VICTOR YAHIR</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>MARIAM ABRIL</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>ANGEL RODRIGO</t>
   </si>
   <si>
     <t>EBERTH JUVIEL</t>
@@ -1276,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
@@ -1322,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920122</v>
+        <v>18330051920128</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920128</v>
+        <v>18330051920130</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920130</v>
+        <v>18330051920135</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920135</v>
+        <v>18330051920044</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920044</v>
+        <v>19330051920056</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -1512,21 +1512,21 @@
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920056</v>
+        <v>19330051920307</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920307</v>
+        <v>19330051920312</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920312</v>
+        <v>19330051920337</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920337</v>
+        <v>19330051920373</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -1607,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920373</v>
+        <v>19330051920374</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920374</v>
+        <v>19330051920381</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -1661,22 +1661,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920381</v>
+        <v>18330051920116</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>18330051920116</v>
+        <v>18330051920120</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>18330051920120</v>
+        <v>18330051920121</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>60</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>18330051920121</v>
+        <v>18330051920122</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
